--- a/Data/EC/NIT-9007053195.xlsx
+++ b/Data/EC/NIT-9007053195.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDFA1333-B02A-48A8-B390-2297B1A242AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4EA6A49-5F32-47DB-AAF3-31AB00DF96D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{34DDCDA4-5FF0-47FD-A88B-2B0B34E42D75}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86436AA6-EB16-443E-BA07-170409CBFA45}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,154 +71,154 @@
     <t>JORGE ENRIQUE QUIÑONEZ VELAZCO</t>
   </si>
   <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1067864597</t>
+  </si>
+  <si>
+    <t>JOSE DAVID CONEO PIÑEREZ</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
     <t>1712</t>
   </si>
   <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1067864597</t>
-  </si>
-  <si>
-    <t>JOSE DAVID CONEO PIÑEREZ</t>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
   </si>
   <si>
     <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -317,7 +317,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -330,9 +332,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -532,23 +532,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -576,10 +576,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -632,7 +632,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F626AADE-B968-5AF0-0945-3C7C17541274}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76EA0921-4E3D-ED48-3B1C-E3F0C29095B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -983,7 +983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C42B75A-880C-42DD-8929-FAE9FA96DE97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C74D655-E5CD-4CD0-93E7-1330CD40A297}">
   <dimension ref="B2:J73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1161,10 +1161,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1175,19 +1175,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>27578</v>
       </c>
       <c r="G17" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1204,13 +1204,13 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>27578</v>
       </c>
       <c r="G18" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1221,10 +1221,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
@@ -1233,7 +1233,7 @@
         <v>27578</v>
       </c>
       <c r="G19" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1244,19 +1244,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F20" s="18">
-        <v>29166</v>
+        <v>27578</v>
       </c>
       <c r="G20" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1267,19 +1267,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G21" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1290,19 +1290,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G22" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1313,19 +1313,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G23" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1336,19 +1336,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G24" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1359,19 +1359,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G25" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1382,19 +1382,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G26" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1405,19 +1405,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G27" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1428,19 +1428,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G28" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1451,19 +1451,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G29" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1474,19 +1474,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G30" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1497,19 +1497,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G31" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1520,19 +1520,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G32" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1543,19 +1543,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G33" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1566,19 +1566,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G34" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1589,19 +1589,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G35" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1612,19 +1612,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G36" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1635,19 +1635,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G37" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1658,19 +1658,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G38" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1681,19 +1681,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G39" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1704,19 +1704,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G40" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1727,19 +1727,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G41" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1750,19 +1750,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G42" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1773,19 +1773,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F43" s="18">
         <v>31249</v>
       </c>
       <c r="G43" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1796,19 +1796,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F44" s="18">
         <v>31249</v>
       </c>
       <c r="G44" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1819,19 +1819,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F45" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1842,19 +1842,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F46" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1865,19 +1865,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F47" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1888,19 +1888,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F48" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1911,19 +1911,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F49" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1934,19 +1934,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F50" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1957,19 +1957,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F51" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1980,19 +1980,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F52" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2003,19 +2003,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F53" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2026,19 +2026,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F54" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2049,19 +2049,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F55" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G55" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2072,19 +2072,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F56" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2095,19 +2095,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F57" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2118,19 +2118,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F58" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2141,19 +2141,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F59" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2164,19 +2164,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F60" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2187,19 +2187,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F61" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2210,19 +2210,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F62" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2233,19 +2233,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F63" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2256,19 +2256,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F64" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G64" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2279,19 +2279,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="F65" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G65" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2302,19 +2302,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="F66" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G66" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2325,19 +2325,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E67" s="22" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="F67" s="24">
-        <v>27578</v>
+        <v>29166</v>
       </c>
       <c r="G67" s="24">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H67" s="25"/>
       <c r="I67" s="25"/>
